--- a/report/case.xlsx
+++ b/report/case.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>case.id</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>case.caller_name</t>
+  </si>
+  <si>
+    <t>case.callDate</t>
   </si>
 </sst>
 </file>
@@ -134,14 +140,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -157,19 +163,25 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -195,7 +207,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -220,7 +232,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
